--- a/Tools/dishs.xlsx
+++ b/Tools/dishs.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -933,31 +933,31 @@
     <t>韩式牛肉卷</t>
   </si>
   <si>
-    <t>瘦牛肉片,生菜,泡菜,杂粮饭</t>
+    <t>瘦牛肉,生菜,泡菜,杂粮饭</t>
   </si>
   <si>
     <t>芹菜炒牛肉</t>
   </si>
   <si>
-    <t>牛肉丝,芹菜,生抽</t>
+    <t>牛肉,芹菜,生抽</t>
   </si>
   <si>
     <t>牛肉爆笋尖</t>
   </si>
   <si>
-    <t>牛肉片,笋片,青红椒</t>
+    <t>牛肉,笋片,青红椒</t>
   </si>
   <si>
     <t>胡萝卜炖牛肉</t>
   </si>
   <si>
-    <t>牛肉块,胡萝卜</t>
+    <t>牛肉,胡萝卜</t>
   </si>
   <si>
     <t>牛肉豆腐羹</t>
   </si>
   <si>
-    <t>牛肉末,豆腐,蛋花</t>
+    <t>牛肉,豆腐,蛋花</t>
   </si>
   <si>
     <t>孜然牛肉片</t>
@@ -975,7 +975,7 @@
     <t>番茄滑蛋牛肉</t>
   </si>
   <si>
-    <t>牛肉片,番茄,鸡蛋</t>
+    <t>牛肉,番茄,鸡蛋</t>
   </si>
   <si>
     <t>凉拌牛百叶</t>
@@ -987,7 +987,7 @@
     <t>牛肉炒莲藕</t>
   </si>
   <si>
-    <t>牛肉条,藕片,毛豆</t>
+    <t>牛肉,藕片,毛豆</t>
   </si>
   <si>
     <t>金针菇肥牛卷</t>
@@ -4217,6 +4217,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4504,8 +4511,8 @@
   <sheetPr/>
   <dimension ref="A1:D224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="L159" sqref="L159"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
